--- a/output/size_tables_backcountry.xlsx
+++ b/output/size_tables_backcountry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDA\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E3EA09-9945-4184-8D8A-D88C46001727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E7016D-53AE-41DF-BDA8-6B7BDE135D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1390" windowWidth="15050" windowHeight="8930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="70">
   <si>
     <t>(78.7cm)</t>
   </si>
@@ -213,15 +213,35 @@
     <t>(111.1cm)</t>
   </si>
   <si>
-    <t>여성 상의, 하의</t>
+    <t>여성 반팔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>남성 상의</t>
+    <t>여성 반바지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>남성 하의 (허리)</t>
+    <t>여성 긴팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 긴바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴바지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,16 +370,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,36 +659,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:DL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:P13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="6"/>
+      <c r="CZ1" s="6"/>
+      <c r="DA1" s="6"/>
+      <c r="DB1" s="6"/>
+      <c r="DC1" s="6"/>
+      <c r="DD1" s="6"/>
+      <c r="DE1" s="6"/>
+      <c r="DF1" s="6"/>
+      <c r="DG1" s="6"/>
+      <c r="DH1" s="6"/>
+      <c r="DI1" s="6"/>
+      <c r="DJ1" s="6"/>
+      <c r="DK1" s="6"/>
+      <c r="DL1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -714,8 +847,306 @@
       <c r="N2" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2">
+        <v>26</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>27</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>28</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>29</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>30</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>31</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>32</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>33</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>34</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>35</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>36</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>37</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>38</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>40</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>42</v>
+      </c>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2">
+        <v>26</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>27</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>28</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>29</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>30</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>31</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>32</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>33</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>34</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>35</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>36</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>37</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>38</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>40</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -758,8 +1189,314 @@
       <c r="N3" s="1">
         <v>22</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2">
+        <v>6</v>
+      </c>
+      <c r="U3" s="2">
+        <v>8</v>
+      </c>
+      <c r="V3" s="2">
+        <v>10</v>
+      </c>
+      <c r="W3" s="2">
+        <v>12</v>
+      </c>
+      <c r="X3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>22</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>8</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>14</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>16</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>18</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>20</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>22</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CW3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -802,8 +1539,314 @@
       <c r="N4" s="2">
         <v>36</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>25</v>
+      </c>
+      <c r="R4" s="2">
+        <v>26</v>
+      </c>
+      <c r="S4" s="2">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2">
+        <v>28</v>
+      </c>
+      <c r="U4" s="2">
+        <v>29</v>
+      </c>
+      <c r="V4" s="2">
+        <v>30</v>
+      </c>
+      <c r="W4" s="2">
+        <v>31</v>
+      </c>
+      <c r="X4" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>33</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>36</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>25</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>26</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>27</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>28</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>29</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>31</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>32</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>33</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>34</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>35</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>36</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -846,8 +1889,218 @@
       <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -890,8 +2143,134 @@
       <c r="N6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:116" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -934,372 +2313,143 @@
       <c r="N7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="Z7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="AD7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="AL7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="AN7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2">
+      <c r="AT7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2">
+      <c r="AU7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2">
+      <c r="AW7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2">
+      <c r="AZ7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="2">
+      <c r="BA7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="2">
+      <c r="BB7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="2">
+      <c r="BC7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="2">
+      <c r="BD7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K14" s="2">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2">
-        <v>36</v>
-      </c>
-      <c r="M14" s="2">
-        <v>37</v>
-      </c>
-      <c r="N14" s="2">
-        <v>38</v>
-      </c>
-      <c r="O14" s="2">
-        <v>40</v>
-      </c>
-      <c r="P14" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="BE1:BR1"/>
+    <mergeCell ref="BS1:CF1"/>
+    <mergeCell ref="CG1:CV1"/>
+    <mergeCell ref="CW1:DL1"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="O1:AB1"/>
+    <mergeCell ref="AC1:AP1"/>
+    <mergeCell ref="AQ1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
